--- a/LaTeX/PreliminaryWork/Graphs/BuretteVsSyringe.xlsx
+++ b/LaTeX/PreliminaryWork/Graphs/BuretteVsSyringe.xlsx
@@ -16,21 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Time (s)</t>
-  </si>
-  <si>
-    <t>Volume Of Hydrogen Produced</t>
-  </si>
-  <si>
-    <t>Repeat1</t>
-  </si>
-  <si>
-    <t>Repeat2</t>
-  </si>
-  <si>
-    <t>Repeat3</t>
   </si>
   <si>
     <t>Gas Syringe</t>
@@ -39,16 +27,25 @@
     <t>Burette</t>
   </si>
   <si>
-    <t>Volume of Hydrogen Produced</t>
+    <t>Volume Of Hydrogen Produced (ml)</t>
+  </si>
+  <si>
+    <t>Volume of Hydrogen Produced (ml)</t>
+  </si>
+  <si>
+    <t>Repeat 1</t>
+  </si>
+  <si>
+    <t>Repeat 2</t>
+  </si>
+  <si>
+    <t>Repeat 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -74,16 +71,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,47 +337,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$14</c:f>
+              <c:f>Sheet1!$D$5:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -246,47 +396,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$14</c:f>
+              <c:f>Sheet1!$E$5:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -338,47 +455,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$14</c:f>
+              <c:f>Sheet1!$F$5:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -428,11 +512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61360000"/>
-        <c:axId val="61361536"/>
+        <c:axId val="144136064"/>
+        <c:axId val="144142336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61360000"/>
+        <c:axId val="144136064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61361536"/>
+        <c:crossAx val="144142336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61361536"/>
+        <c:axId val="144142336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,11 +579,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61360000"/>
+        <c:crossAx val="144136064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,45 +661,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$14</c:f>
+              <c:f>Sheet1!$J$5:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -669,45 +720,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$14</c:f>
+              <c:f>Sheet1!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -761,45 +779,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$14</c:f>
+              <c:f>Sheet1!$L$5:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -851,11 +836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161319168"/>
-        <c:axId val="161321344"/>
+        <c:axId val="146343808"/>
+        <c:axId val="146350080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161319168"/>
+        <c:axId val="146343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161321344"/>
+        <c:crossAx val="146350080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -892,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161321344"/>
+        <c:axId val="146350080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161319168"/>
+        <c:crossAx val="146343808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1296,309 +1281,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11"/>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="6">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I7" s="6">
+        <v>60</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="6">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>90</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3.25</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6">
+        <v>120</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>120</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5.05</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="J5">
-        <v>0.75</v>
-      </c>
-      <c r="K5">
-        <v>1.35</v>
-      </c>
-      <c r="L5">
-        <v>0.95</v>
+    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6">
+        <v>150</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6">
+        <v>150</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>1.65</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>2.0499999999999998</v>
+    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6">
+        <v>180</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>180</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K11" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7.9</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="J7">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="K7">
-        <v>4.95</v>
-      </c>
-      <c r="L7">
-        <v>3.25</v>
+    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6">
+        <v>210</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>210</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="L12" s="2">
+        <v>8.15</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>120</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="J8">
-        <v>3.25</v>
-      </c>
-      <c r="K8">
-        <v>6.45</v>
-      </c>
-      <c r="L8">
-        <v>5.05</v>
+    <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="6">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="I13" s="6">
+        <v>240</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7.15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>150</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>3.9</v>
-      </c>
-      <c r="K9">
-        <v>7.85</v>
-      </c>
-      <c r="L9">
-        <v>6.8</v>
+    <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="6">
+        <v>270</v>
+      </c>
+      <c r="D14" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6">
+        <v>270</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>11.35</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>180</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="J10">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="K10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L10">
-        <v>7.9</v>
+    <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6">
+        <v>300</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" s="6">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>12.65</v>
+      </c>
+      <c r="L15" s="2">
+        <v>13.5</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>210</v>
-      </c>
-      <c r="D11" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="J11">
-        <v>5.9</v>
-      </c>
-      <c r="K11">
-        <v>10.25</v>
-      </c>
-      <c r="L11">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>240</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J12">
-        <v>7.15</v>
-      </c>
-      <c r="K12">
-        <v>11.1</v>
-      </c>
-      <c r="L12">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>270</v>
-      </c>
-      <c r="D13" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>11.9</v>
-      </c>
-      <c r="L13">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>300</v>
-      </c>
-      <c r="D14" s="2">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>17</v>
-      </c>
-      <c r="J14">
-        <v>10.45</v>
-      </c>
-      <c r="K14">
-        <v>12.65</v>
-      </c>
-      <c r="L14">
-        <v>13.5</v>
-      </c>
-    </row>
+    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/LaTeX/PreliminaryWork/Graphs/BuretteVsSyringe.xlsx
+++ b/LaTeX/PreliminaryWork/Graphs/BuretteVsSyringe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,10 +333,43 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -392,10 +425,43 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -451,10 +517,43 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -512,16 +611,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144136064"/>
-        <c:axId val="144142336"/>
+        <c:axId val="67146880"/>
+        <c:axId val="67148800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144136064"/>
+        <c:axId val="67146880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -529,10 +630,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -545,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144142336"/>
+        <c:crossAx val="67148800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144142336"/>
+        <c:axId val="67148800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,10 +668,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -583,7 +684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144136064"/>
+        <c:crossAx val="67146880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -592,6 +693,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -657,10 +768,43 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -716,10 +860,43 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -775,10 +952,43 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -836,16 +1046,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146343808"/>
-        <c:axId val="146350080"/>
+        <c:axId val="67200128"/>
+        <c:axId val="67202048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146343808"/>
+        <c:axId val="67200128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -856,7 +1068,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -869,7 +1081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146350080"/>
+        <c:crossAx val="67202048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146350080"/>
+        <c:axId val="67202048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,10 +1103,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -907,7 +1119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146343808"/>
+        <c:crossAx val="67200128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,6 +1128,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -933,16 +1155,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>59109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>130491</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368672</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -963,16 +1185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475689</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>60792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>25266</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1283,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LaTeX/PreliminaryWork/Graphs/BuretteVsSyringe.xlsx
+++ b/LaTeX/PreliminaryWork/Graphs/BuretteVsSyringe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Time (s)</t>
   </si>
@@ -41,11 +41,17 @@
   <si>
     <t>Repeat 3</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,15 +244,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -266,6 +268,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,7 +393,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$5:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -469,7 +485,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$5:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -561,7 +577,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$5:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -611,11 +627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67146880"/>
-        <c:axId val="67148800"/>
+        <c:axId val="152529152"/>
+        <c:axId val="152535424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67146880"/>
+        <c:axId val="152529152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67148800"/>
+        <c:crossAx val="152535424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67148800"/>
+        <c:axId val="152535424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,11 +696,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67146880"/>
+        <c:crossAx val="152529152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,7 +828,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$5:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -904,7 +920,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$5:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -996,7 +1012,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$5:$L$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1046,11 +1062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67200128"/>
-        <c:axId val="67202048"/>
+        <c:axId val="153159936"/>
+        <c:axId val="153166208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67200128"/>
+        <c:axId val="153159936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67202048"/>
+        <c:crossAx val="153166208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67202048"/>
+        <c:axId val="153166208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,11 +1131,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67200128"/>
+        <c:crossAx val="153159936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1503,22 +1519,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L16"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -1526,345 +1543,441 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
-      <c r="D3" s="8" t="s">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="15" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>0.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="G5" s="20">
+        <f>(D5+E5+F5)/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="16">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="17">
         <v>0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="17">
         <v>0</v>
       </c>
+      <c r="M5" s="21">
+        <f>(J5+K5+L5)/3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="15">
         <v>1.5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G15" si="0">(D6+E6+F6)/3</f>
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="2">
         <v>30</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="18">
         <v>0.75</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="19">
         <v>1.35</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="19">
         <v>0.95</v>
       </c>
+      <c r="M6" s="21">
+        <f t="shared" ref="M6:M15" si="1">(J6+K6+L6)/3</f>
+        <v>1.0166666666666666</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>60</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="14">
         <v>2.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="15">
         <v>3.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="15">
         <v>3</v>
       </c>
-      <c r="I7" s="6">
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
         <v>60</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="18">
         <v>1.65</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="19">
         <v>3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="19">
         <v>2.0499999999999998</v>
       </c>
+      <c r="M7" s="21">
+        <f t="shared" si="1"/>
+        <v>2.2333333333333334</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>90</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="15">
         <v>4.5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="I8" s="2">
         <v>90</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="18">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="19">
         <v>4.95</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="19">
         <v>3.25</v>
       </c>
+      <c r="M8" s="21">
+        <f t="shared" si="1"/>
+        <v>3.5833333333333335</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>120</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="15">
         <v>6.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="15">
         <v>6.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I9" s="2">
         <v>120</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="18">
         <v>3.25</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="19">
         <v>6.45</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="19">
         <v>5.05</v>
       </c>
+      <c r="M9" s="21">
+        <f t="shared" si="1"/>
+        <v>4.916666666666667</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <v>150</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="14">
         <v>7.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="15">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="15">
         <v>8</v>
       </c>
-      <c r="I10" s="6">
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="I10" s="2">
         <v>150</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="18">
         <v>3.9</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="19">
         <v>7.85</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="19">
         <v>6.8</v>
       </c>
+      <c r="M10" s="21">
+        <f t="shared" si="1"/>
+        <v>6.1833333333333336</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>180</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="14">
         <v>9.5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="15">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="15">
         <v>9.5</v>
       </c>
-      <c r="I11" s="6">
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="I11" s="2">
         <v>180</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="18">
         <v>4.8499999999999996</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="19">
         <v>7.9</v>
       </c>
+      <c r="M11" s="21">
+        <f t="shared" si="1"/>
+        <v>7.0166666666666666</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="6">
+      <c r="C12" s="2">
         <v>210</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="14">
         <v>11.5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="15">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="15">
         <v>11.5</v>
       </c>
-      <c r="I12" s="6">
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="I12" s="2">
         <v>210</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="18">
         <v>5.9</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="19">
         <v>10.25</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="19">
         <v>8.15</v>
       </c>
+      <c r="M12" s="21">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
     </row>
-    <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>240</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="14">
         <v>13</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="15">
         <v>14</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="15">
         <v>13.5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="I13" s="2">
         <v>240</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="18">
         <v>7.15</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="19">
         <v>11.1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="19">
         <v>10.199999999999999</v>
       </c>
+      <c r="M13" s="21">
+        <f t="shared" si="1"/>
+        <v>9.4833333333333325</v>
+      </c>
     </row>
-    <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>270</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="14">
         <v>14.5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="15">
         <v>15.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="15">
         <v>15</v>
       </c>
-      <c r="I14" s="6">
+      <c r="G14" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I14" s="2">
         <v>270</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="18">
         <v>9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="19">
         <v>11.9</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="19">
         <v>11.35</v>
       </c>
+      <c r="M14" s="21">
+        <f t="shared" si="1"/>
+        <v>10.75</v>
+      </c>
     </row>
-    <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="6">
+    <row r="15" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
         <v>300</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <v>16</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="15">
         <v>17.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="15">
         <v>17</v>
       </c>
-      <c r="I15" s="6">
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="I15" s="2">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="18">
         <v>10.45</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="19">
         <v>12.65</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="19">
         <v>13.5</v>
       </c>
+      <c r="M15" s="21">
+        <f t="shared" si="1"/>
+        <v>12.200000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
